--- a/Code and Report/code/summary_output.xlsx
+++ b/Code and Report/code/summary_output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Holding Cost 18/10</t>
   </si>
@@ -29,6 +29,12 @@
   </si>
   <si>
     <t>Total Cost</t>
+  </si>
+  <si>
+    <t>Holding Cost Total</t>
+  </si>
+  <si>
+    <t>Procurement Cost Total</t>
   </si>
 </sst>
 </file>
@@ -386,13 +392,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E82"/>
+  <dimension ref="A1:G82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -408,8 +414,14 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>5</v>
       </c>
@@ -423,7 +435,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>5</v>
       </c>
@@ -439,8 +451,14 @@
       <c r="E3">
         <v>9470.348837209309</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <v>3190</v>
+      </c>
+      <c r="G3">
+        <v>6280.348837209301</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>5</v>
       </c>
@@ -456,8 +474,14 @@
       <c r="E4">
         <v>8048.040444893835</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4">
+        <v>1602.027300303336</v>
+      </c>
+      <c r="G4">
+        <v>6446.013144590494</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>5</v>
       </c>
@@ -471,7 +495,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>5</v>
       </c>
@@ -487,8 +511,14 @@
       <c r="E6">
         <v>10704.58676207514</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6">
+        <v>4342.5</v>
+      </c>
+      <c r="G6">
+        <v>6362.086762075132</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>5</v>
       </c>
@@ -504,8 +534,14 @@
       <c r="E7">
         <v>9567.369059656221</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7">
+        <v>2985.652173913043</v>
+      </c>
+      <c r="G7">
+        <v>6581.716885743173</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>5</v>
       </c>
@@ -519,7 +555,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>5</v>
       </c>
@@ -535,8 +571,14 @@
       <c r="E9">
         <v>13009.58676207513</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="F9">
+        <v>6647.5</v>
+      </c>
+      <c r="G9">
+        <v>6362.086762075132</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>5</v>
       </c>
@@ -552,8 +594,14 @@
       <c r="E10">
         <v>12224.04905387838</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="F10">
+        <v>5657.639751552795</v>
+      </c>
+      <c r="G10">
+        <v>6566.409302325579</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>5</v>
       </c>
@@ -567,7 +615,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>5</v>
       </c>
@@ -583,8 +631,14 @@
       <c r="E12">
         <v>9470.348837209312</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="F12">
+        <v>3190</v>
+      </c>
+      <c r="G12">
+        <v>6280.348837209297</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>5</v>
       </c>
@@ -600,8 +654,14 @@
       <c r="E13">
         <v>8048.040444893835</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="F13">
+        <v>1602.027300303336</v>
+      </c>
+      <c r="G13">
+        <v>6446.013144590494</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14">
         <v>5</v>
       </c>
@@ -615,7 +675,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:7">
       <c r="A15">
         <v>5</v>
       </c>
@@ -631,8 +691,14 @@
       <c r="E15">
         <v>10822.20393559929</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15">
+        <v>4432.5</v>
+      </c>
+      <c r="G15">
+        <v>6389.703935599282</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16">
         <v>5</v>
       </c>
@@ -648,8 +714,14 @@
       <c r="E16">
         <v>9577.369059656223</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="F16">
+        <v>2995.652173913043</v>
+      </c>
+      <c r="G16">
+        <v>6581.716885743172</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17">
         <v>5</v>
       </c>
@@ -663,7 +735,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:7">
       <c r="A18">
         <v>5</v>
       </c>
@@ -679,8 +751,14 @@
       <c r="E18">
         <v>13307.20393559928</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>6917.5</v>
+      </c>
+      <c r="G18">
+        <v>6389.703935599282</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19">
         <v>5</v>
       </c>
@@ -696,8 +774,14 @@
       <c r="E19">
         <v>12383.02123356926</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="F19">
+        <v>5801.304347826086</v>
+      </c>
+      <c r="G19">
+        <v>6581.716885743172</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20">
         <v>5</v>
       </c>
@@ -711,7 +795,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:7">
       <c r="A21">
         <v>5</v>
       </c>
@@ -727,8 +811,14 @@
       <c r="E21">
         <v>9470.348837209312</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="F21">
+        <v>3190</v>
+      </c>
+      <c r="G21">
+        <v>6280.348837209297</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22">
         <v>5</v>
       </c>
@@ -744,8 +834,14 @@
       <c r="E22">
         <v>8048.040444893835</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22">
+        <v>1602.027300303336</v>
+      </c>
+      <c r="G22">
+        <v>6446.013144590494</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23">
         <v>5</v>
       </c>
@@ -759,7 +855,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:7">
       <c r="A24">
         <v>5</v>
       </c>
@@ -775,8 +871,14 @@
       <c r="E24">
         <v>10822.20393559929</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="F24">
+        <v>4432.5</v>
+      </c>
+      <c r="G24">
+        <v>6389.703935599282</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25">
         <v>5</v>
       </c>
@@ -792,8 +894,14 @@
       <c r="E25">
         <v>9577.369059656223</v>
       </c>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="F25">
+        <v>2995.652173913043</v>
+      </c>
+      <c r="G25">
+        <v>6581.716885743172</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26">
         <v>5</v>
       </c>
@@ -807,7 +915,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:7">
       <c r="A27">
         <v>5</v>
       </c>
@@ -823,8 +931,14 @@
       <c r="E27">
         <v>13307.20393559928</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>6917.5</v>
+      </c>
+      <c r="G27">
+        <v>6389.703935599282</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28">
         <v>5</v>
       </c>
@@ -840,8 +954,14 @@
       <c r="E28">
         <v>12383.02123356926</v>
       </c>
-    </row>
-    <row r="29" spans="1:5">
+      <c r="F28">
+        <v>5801.304347826086</v>
+      </c>
+      <c r="G28">
+        <v>6581.716885743172</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29">
         <v>10</v>
       </c>
@@ -855,7 +975,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:7">
       <c r="A30">
         <v>10</v>
       </c>
@@ -871,8 +991,14 @@
       <c r="E30">
         <v>9514.035062611812</v>
       </c>
-    </row>
-    <row r="31" spans="1:5">
+      <c r="F30">
+        <v>3205</v>
+      </c>
+      <c r="G30">
+        <v>6309.035062611804</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31">
         <v>10</v>
       </c>
@@ -888,8 +1014,14 @@
       <c r="E31">
         <v>8048.040444893835</v>
       </c>
-    </row>
-    <row r="32" spans="1:5">
+      <c r="F31">
+        <v>1602.027300303336</v>
+      </c>
+      <c r="G31">
+        <v>6446.013144590494</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32">
         <v>10</v>
       </c>
@@ -903,7 +1035,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:7">
       <c r="A33">
         <v>10</v>
       </c>
@@ -919,8 +1051,14 @@
       <c r="E33">
         <v>11738.27799642218</v>
       </c>
-    </row>
-    <row r="34" spans="1:5">
+      <c r="F33">
+        <v>5410</v>
+      </c>
+      <c r="G33">
+        <v>6328.277996422181</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34">
         <v>10</v>
       </c>
@@ -936,8 +1074,14 @@
       <c r="E34">
         <v>9595.764408493431</v>
       </c>
-    </row>
-    <row r="35" spans="1:5">
+      <c r="F34">
+        <v>3135.652173913043</v>
+      </c>
+      <c r="G34">
+        <v>6460.112234580383</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35">
         <v>10</v>
       </c>
@@ -951,7 +1095,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:7">
       <c r="A36">
         <v>10</v>
       </c>
@@ -967,8 +1111,14 @@
       <c r="E36">
         <v>14077.08676207513</v>
       </c>
-    </row>
-    <row r="37" spans="1:5">
+      <c r="F36">
+        <v>7715</v>
+      </c>
+      <c r="G36">
+        <v>6362.086762075132</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37">
         <v>10</v>
       </c>
@@ -984,8 +1134,14 @@
       <c r="E37">
         <v>12374.04905387838</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>5807.639751552794</v>
+      </c>
+      <c r="G37">
+        <v>6566.409302325579</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38">
         <v>10</v>
       </c>
@@ -999,7 +1155,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:7">
       <c r="A39">
         <v>10</v>
       </c>
@@ -1015,8 +1171,14 @@
       <c r="E39">
         <v>9637.917593528822</v>
       </c>
-    </row>
-    <row r="40" spans="1:5">
+      <c r="F39">
+        <v>3302.934782608696</v>
+      </c>
+      <c r="G39">
+        <v>6334.982810920117</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40">
         <v>10</v>
       </c>
@@ -1032,8 +1194,14 @@
       <c r="E40">
         <v>8048.040444893835</v>
       </c>
-    </row>
-    <row r="41" spans="1:5">
+      <c r="F40">
+        <v>1602.027300303336</v>
+      </c>
+      <c r="G40">
+        <v>6446.013144590494</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41">
         <v>10</v>
       </c>
@@ -1047,7 +1215,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:7">
       <c r="A42">
         <v>10</v>
       </c>
@@ -1063,8 +1231,14 @@
       <c r="E42">
         <v>12660.34883720929</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42">
+        <v>6380.000000000001</v>
+      </c>
+      <c r="G42">
+        <v>6280.348837209298</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43">
         <v>10</v>
       </c>
@@ -1080,8 +1254,14 @@
       <c r="E43">
         <v>9645.764408493435</v>
       </c>
-    </row>
-    <row r="44" spans="1:5">
+      <c r="F43">
+        <v>3185.652173913043</v>
+      </c>
+      <c r="G43">
+        <v>6460.112234580381</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44">
         <v>10</v>
       </c>
@@ -1095,7 +1275,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:7">
       <c r="A45">
         <v>10</v>
       </c>
@@ -1111,8 +1291,14 @@
       <c r="E45">
         <v>15047.08676207513</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>8685</v>
+      </c>
+      <c r="G45">
+        <v>6362.086762075132</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46">
         <v>10</v>
       </c>
@@ -1128,8 +1314,14 @@
       <c r="E46">
         <v>12553.02123356926</v>
       </c>
-    </row>
-    <row r="47" spans="1:5">
+      <c r="F46">
+        <v>5971.304347826086</v>
+      </c>
+      <c r="G46">
+        <v>6581.716885743173</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47">
         <v>10</v>
       </c>
@@ -1143,7 +1335,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:7">
       <c r="A48">
         <v>10</v>
       </c>
@@ -1159,8 +1351,14 @@
       <c r="E48">
         <v>9637.917593528822</v>
       </c>
-    </row>
-    <row r="49" spans="1:5">
+      <c r="F48">
+        <v>3302.934782608696</v>
+      </c>
+      <c r="G48">
+        <v>6334.982810920117</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49">
         <v>10</v>
       </c>
@@ -1176,8 +1374,14 @@
       <c r="E49">
         <v>8048.040444893835</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>1602.027300303336</v>
+      </c>
+      <c r="G49">
+        <v>6446.013144590494</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50">
         <v>10</v>
       </c>
@@ -1191,7 +1395,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:7">
       <c r="A51">
         <v>10</v>
       </c>
@@ -1207,8 +1411,14 @@
       <c r="E51">
         <v>12660.34883720928</v>
       </c>
-    </row>
-    <row r="52" spans="1:5">
+      <c r="F51">
+        <v>6380.000000000001</v>
+      </c>
+      <c r="G51">
+        <v>6280.348837209297</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52">
         <v>10</v>
       </c>
@@ -1224,8 +1434,14 @@
       <c r="E52">
         <v>9645.764408493435</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>3185.652173913043</v>
+      </c>
+      <c r="G52">
+        <v>6460.112234580381</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53">
         <v>10</v>
       </c>
@@ -1239,7 +1455,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:7">
       <c r="A54">
         <v>10</v>
       </c>
@@ -1255,8 +1471,14 @@
       <c r="E54">
         <v>15254.70393559927</v>
       </c>
-    </row>
-    <row r="55" spans="1:5">
+      <c r="F54">
+        <v>8865</v>
+      </c>
+      <c r="G54">
+        <v>6389.703935599282</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55">
         <v>10</v>
       </c>
@@ -1272,8 +1494,14 @@
       <c r="E55">
         <v>12573.02123356926</v>
       </c>
-    </row>
-    <row r="56" spans="1:5">
+      <c r="F55">
+        <v>5991.304347826086</v>
+      </c>
+      <c r="G55">
+        <v>6581.716885743172</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56">
         <v>20</v>
       </c>
@@ -1287,7 +1515,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:7">
       <c r="A57">
         <v>20</v>
       </c>
@@ -1303,8 +1531,14 @@
       <c r="E57">
         <v>9514.035062611811</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57">
+        <v>3205</v>
+      </c>
+      <c r="G57">
+        <v>6309.035062611806</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58">
         <v>20</v>
       </c>
@@ -1320,8 +1554,14 @@
       <c r="E58">
         <v>8048.040444893835</v>
       </c>
-    </row>
-    <row r="59" spans="1:5">
+      <c r="F58">
+        <v>1602.027300303336</v>
+      </c>
+      <c r="G58">
+        <v>6446.013144590494</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59">
         <v>20</v>
       </c>
@@ -1335,7 +1575,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:7">
       <c r="A60">
         <v>20</v>
       </c>
@@ -1351,8 +1591,14 @@
       <c r="E60">
         <v>12059.5936940966</v>
       </c>
-    </row>
-    <row r="61" spans="1:5">
+      <c r="F60">
+        <v>5700.625</v>
+      </c>
+      <c r="G60">
+        <v>6358.9686940966</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61">
         <v>20</v>
       </c>
@@ -1368,8 +1614,14 @@
       <c r="E61">
         <v>9595.764408493431</v>
       </c>
-    </row>
-    <row r="62" spans="1:5">
+      <c r="F61">
+        <v>3135.652173913043</v>
+      </c>
+      <c r="G61">
+        <v>6460.112234580383</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62">
         <v>20</v>
       </c>
@@ -1383,7 +1635,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:7">
       <c r="A63">
         <v>20</v>
       </c>
@@ -1399,8 +1651,14 @@
       <c r="E63">
         <v>16178.27799642218</v>
       </c>
-    </row>
-    <row r="64" spans="1:5">
+      <c r="F63">
+        <v>9850</v>
+      </c>
+      <c r="G63">
+        <v>6328.277996422181</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64">
         <v>20</v>
       </c>
@@ -1416,8 +1674,14 @@
       <c r="E64">
         <v>12552.44440271558</v>
       </c>
-    </row>
-    <row r="65" spans="1:5">
+      <c r="F64">
+        <v>6107.639751552795</v>
+      </c>
+      <c r="G64">
+        <v>6444.804651162788</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65">
         <v>20</v>
       </c>
@@ -1431,7 +1695,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:7">
       <c r="A66">
         <v>20</v>
       </c>
@@ -1447,8 +1711,14 @@
       <c r="E66">
         <v>9646.77641557129</v>
       </c>
-    </row>
-    <row r="67" spans="1:5">
+      <c r="F66">
+        <v>3317.961956521739</v>
+      </c>
+      <c r="G66">
+        <v>6328.814459049543</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67">
         <v>20</v>
       </c>
@@ -1464,8 +1734,14 @@
       <c r="E67">
         <v>8048.040444893835</v>
       </c>
-    </row>
-    <row r="68" spans="1:5">
+      <c r="F67">
+        <v>1602.027300303336</v>
+      </c>
+      <c r="G67">
+        <v>6446.013144590494</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68">
         <v>20</v>
       </c>
@@ -1479,7 +1755,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:7">
       <c r="A69">
         <v>20</v>
       </c>
@@ -1495,8 +1771,14 @@
       <c r="E69">
         <v>12712.01967799642</v>
       </c>
-    </row>
-    <row r="70" spans="1:5">
+      <c r="F69">
+        <v>6380</v>
+      </c>
+      <c r="G69">
+        <v>6332.019677996421</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70">
         <v>20</v>
       </c>
@@ -1512,8 +1794,14 @@
       <c r="E70">
         <v>9645.764408493435</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>3185.652173913043</v>
+      </c>
+      <c r="G70">
+        <v>6460.112234580381</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71">
         <v>20</v>
       </c>
@@ -1527,7 +1815,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:7">
       <c r="A72">
         <v>20</v>
       </c>
@@ -1543,8 +1831,14 @@
       <c r="E72">
         <v>17148.27799642217</v>
       </c>
-    </row>
-    <row r="73" spans="1:5">
+      <c r="F72">
+        <v>10820</v>
+      </c>
+      <c r="G72">
+        <v>6328.277996422181</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73">
         <v>20</v>
       </c>
@@ -1560,8 +1854,14 @@
       <c r="E73">
         <v>12731.41658240647</v>
       </c>
-    </row>
-    <row r="74" spans="1:5">
+      <c r="F73">
+        <v>6271.304347826086</v>
+      </c>
+      <c r="G73">
+        <v>6460.112234580383</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74">
         <v>20</v>
       </c>
@@ -1575,7 +1875,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:7">
       <c r="A75">
         <v>20</v>
       </c>
@@ -1591,8 +1891,14 @@
       <c r="E75">
         <v>9767.40141557129</v>
       </c>
-    </row>
-    <row r="76" spans="1:5">
+      <c r="F75">
+        <v>3438.586956521739</v>
+      </c>
+      <c r="G75">
+        <v>6328.814459049541</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76">
         <v>20</v>
       </c>
@@ -1608,8 +1914,14 @@
       <c r="E76">
         <v>8048.040444893835</v>
       </c>
-    </row>
-    <row r="77" spans="1:5">
+      <c r="F76">
+        <v>1602.027300303336</v>
+      </c>
+      <c r="G76">
+        <v>6446.013144590494</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77">
         <v>20</v>
       </c>
@@ -1623,7 +1935,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:7">
       <c r="A78">
         <v>20</v>
       </c>
@@ -1639,8 +1951,14 @@
       <c r="E78">
         <v>12940.8523761375</v>
       </c>
-    </row>
-    <row r="79" spans="1:5">
+      <c r="F78">
+        <v>6605.869565217391</v>
+      </c>
+      <c r="G78">
+        <v>6334.982810920117</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79">
         <v>20</v>
       </c>
@@ -1656,8 +1974,14 @@
       <c r="E79">
         <v>9645.764408493435</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="F79">
+        <v>3185.652173913043</v>
+      </c>
+      <c r="G79">
+        <v>6460.112234580381</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80">
         <v>20</v>
       </c>
@@ -1671,7 +1995,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:7">
       <c r="A81">
         <v>20</v>
       </c>
@@ -1687,8 +2011,14 @@
       <c r="E81">
         <v>19040.34883720929</v>
       </c>
-    </row>
-    <row r="82" spans="1:5">
+      <c r="F81">
+        <v>12760</v>
+      </c>
+      <c r="G81">
+        <v>6280.348837209299</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82">
         <v>20</v>
       </c>
@@ -1703,6 +2033,12 @@
       </c>
       <c r="E82">
         <v>12831.41658240646</v>
+      </c>
+      <c r="F82">
+        <v>6371.304347826086</v>
+      </c>
+      <c r="G82">
+        <v>6460.112234580381</v>
       </c>
     </row>
   </sheetData>
